--- a/analysis/나이대별_판매량.xlsx
+++ b/analysis/나이대별_판매량.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>486229000</v>
+        <v>462116000</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>573280000</v>
+        <v>560717000</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>343868000</v>
+        <v>380544000</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1071615000</v>
+        <v>1007978600</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1201341600</v>
+        <v>1211249000</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>765809000</v>
+        <v>819538000</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>902724200</v>
+        <v>854778100</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1057210000</v>
+        <v>1043011000</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>650300000</v>
+        <v>712445100</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1043595000</v>
+        <v>972574000</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1228680000</v>
+        <v>1228545000</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>747972000</v>
+        <v>819128000</v>
       </c>
     </row>
     <row r="18">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1808516000</v>
+        <v>1740203000</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2100743000</v>
+        <v>2062400000</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1293095000</v>
+        <v>1399751000</v>
       </c>
     </row>
   </sheetData>
